--- a/docs/PTA2_DDC_80/PTA2_DDC_80_08.08.24_output.xlsx
+++ b/docs/PTA2_DDC_80/PTA2_DDC_80_08.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L82"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731782212.4371595</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731782214.8860211</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731782212.4371595.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731782214.8860211.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>283.53</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>283.24</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.2899999999999636</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731782216.007199</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731782216.9092395</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731782216.007199.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731782216.9092395.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>283.65</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>283.03</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.6200000000000045</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -643,95 +671,107 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731782217.4199905</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731782217.4199905.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/SBERP1731782217.4199905.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>282.84</v>
       </c>
-      <c r="J5" t="n">
-        <v>282.84</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>282.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.339999999999975</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731782217.7646163</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731782219.767264</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731782217.7646163.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731782219.767264.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>283.53</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>283.24</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.2899999999999636</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -739,51 +779,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731782220.7107072</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731782221.333069</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731782220.7107072.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731782221.333069.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>283.65</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>283.03</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.6200000000000045</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731782221.7878242</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731782222.0504012</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731782221.7878242.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731782222.0504012.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>282.84</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>284.05</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>1.210000000000036</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731782223.354688</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731782225.837519</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731782223.354688.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731782225.837519.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>284.59</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>284.74</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.1500000000000341</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731782226.6014137</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731782229.1469305</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731782226.6014137.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731782229.1469305.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>284.01</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>283.64</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.3700000000000045</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731782230.4994223</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731782231.245239</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731782230.4994223.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731782231.245239.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>284.1</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>283.45</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.6500000000000341</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -999,95 +1069,107 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731782231.7865956</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731782231.7865956.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731782231.7865956.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>283.11</v>
       </c>
-      <c r="J12" t="n">
-        <v>283.11</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>282.85</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.2599999999999909</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731782235.396157</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731782236.1527443</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731782235.396157.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731782236.1527443.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>130.84</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>130.35</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.4900000000000091</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -1095,51 +1177,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731782236.8482614</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731782239.8971908</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731782236.8482614.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731782239.8971908.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>129.92</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>129.73</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.1899999999999977</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -1147,95 +1235,107 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731782242.6874762</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731782242.6874762.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731782242.6874762.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>129.21</v>
       </c>
-      <c r="J15" t="n">
-        <v>129.21</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>129.13</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.08000000000001251</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731782243.1167183</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731782243.8015893</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731782243.1167183.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731782243.8015893.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6485.5</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6511.5</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>26</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -1243,51 +1343,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731782245.7170901</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731782246.6370203</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731782245.7170901.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731782246.6370203.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6532</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>6523.5</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>8.5</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1295,51 +1401,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731782248.3599598</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731782251.0184994</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731782248.3599598.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731782251.0184994.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6502.5</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>6484.5</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-18</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -1347,51 +1459,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731782251.454094</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731782252.0357175</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731782251.454094.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731782252.0357175.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>6498.5</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>6478.5</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>20</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1399,95 +1517,107 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731782252.2222638</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731782252.2222638.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731782252.2222638.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6463.5</v>
       </c>
-      <c r="J20" t="n">
-        <v>6463.5</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>6462.5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731782253.8061862</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731782256.4529712</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731782253.8061862.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731782256.4529712.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>511.1</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>511.75</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-0.6499999999999773</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -1495,51 +1625,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731782257.149956</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731782259.7523196</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731782257.149956.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731782259.7523196.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>511.05</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>510.8</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-0.25</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -1547,51 +1683,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731782261.3926098</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731782261.8975148</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731782261.3926098.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731782261.8975148.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>511.95</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>510.8</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>1.149999999999977</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -1599,95 +1741,107 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731782262.2831411</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731782262.2831411.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731782262.2831411.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>509.75</v>
       </c>
-      <c r="J24" t="n">
-        <v>509.75</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>510.2</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.4499999999999886</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731782263.7143342</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731782266.8326676</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731782263.7143342.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731782266.8326676.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>228.6</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>229.31</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.710000000000008</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>-0.31</v>
       </c>
     </row>
@@ -1695,51 +1849,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731782267.1024415</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731782267.9927514</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731782267.1024415.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731782267.9927514.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>228.7</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>229.35</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.6500000000000057</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -1747,51 +1907,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731782268.7550592</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731782270.906352</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731782268.7550592.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731782270.906352.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>228.55</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>228.86</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.3100000000000023</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -1799,51 +1965,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731782272.9951565</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731782273.929824</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731782272.9951565.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731782273.929824.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>229.16</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>228.65</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.5099999999999909</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -1851,51 +2023,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731782275.552269</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731782278.648829</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731782275.552269.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731782278.648829.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1020.6</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>1025.2</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-4.600000000000023</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-0.45</v>
       </c>
     </row>
@@ -1903,51 +2081,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731782279.391086</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731782279.9845934</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731782279.391086.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731782279.9845934.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1021.4</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1026</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>4.600000000000023</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -1955,51 +2139,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731782281.1286354</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731782282.3911078</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731782281.1286354.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731782282.3911078.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>1021.8</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>1021.8</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2007,51 +2197,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731782283.9351385</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731782285.313696</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731782283.9351385.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731782285.313696.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1024</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1023</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -2059,51 +2255,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731782285.526982</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731782285.8203502</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/CNY1731782285.526982.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/CNY1731782285.8203502.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>11.87</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>11.881</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.01100000000000101</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -2111,51 +2313,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731782286.294265</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731782289.780887</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/CNY1731782286.294265.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/CNY1731782289.780887.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>11.908</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>11.954</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.04600000000000115</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-0.39</v>
       </c>
     </row>
@@ -2163,51 +2371,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731782293.1984723</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731782293.9407334</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/CNY1731782293.1984723.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/CNY1731782293.9407334.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>11.928</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>11.935</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.006999999999999673</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -2215,95 +2429,107 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731782296.1505845</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731782296.1505845.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731782296.1505845.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>11.966</v>
       </c>
-      <c r="J36" t="n">
-        <v>11.966</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>11.969</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.003000000000000114</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731782298.9429078</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731782300.2329388</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731782298.9429078.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731782300.2329388.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>124.66</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>124.86</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.2000000000000028</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2311,51 +2537,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731782300.5002427</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731782300.9009728</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731782300.5002427.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731782300.9009728.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>125.08</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>124.76</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.3199999999999932</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -2363,51 +2595,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731782301.0585902</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731782301.588279</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731782301.0585902.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731782301.588279.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>124.62</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>124.64</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.01999999999999602</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -2415,51 +2653,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731782301.773625</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731782304.1912744</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731782301.773625.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731782304.1912744.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>124.1</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>124.06</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.03999999999999204</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -2467,95 +2711,107 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731782306.8561246</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731782306.8561246.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731782306.8561246.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>123.6</v>
       </c>
-      <c r="J41" t="n">
-        <v>123.6</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>123.5</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-0.09999999999999432</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731782307.1571949</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731782308.2613</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731782307.1571949.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731782308.2613.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>160.74</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>161.66</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.9199999999999875</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.5700000000000001</v>
       </c>
     </row>
@@ -2563,51 +2819,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731782310.4469109</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731782311.349626</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731782310.4469109.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731782311.349626.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>162.14</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>162.28</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.1400000000000148</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -2615,51 +2877,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731782312.9278996</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731782315.984404</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731782312.9278996.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731782315.984404.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>161.36</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>161.3</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-0.06000000000000227</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -2667,51 +2935,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731782316.4086382</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731782317.768074</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731782316.4086382.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731782317.768074.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>161.44</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>161</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.4399999999999977</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -2719,51 +2993,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731782318.6848125</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731782319.2473588</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731782318.6848125.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731782319.2473588.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>49.45</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>49.485</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.03499999999999659</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -2771,51 +3051,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731782319.4340084</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731782321.627437</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731782319.4340084.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731782321.627437.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>49.745</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>49.58</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.1649999999999991</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -2823,51 +3109,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731782322.042754</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731782322.9436772</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731782322.042754.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731782322.9436772.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>49.55</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>49.495</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.05499999999999972</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -2875,51 +3167,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731782323.8762908</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731782326.4544296</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731782323.8762908.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731782326.4544296.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>49.235</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>49.43</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.1950000000000003</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -2927,51 +3225,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731782327.6665227</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731782328.488225</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731782327.6665227.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731782328.488225.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>49.43</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>49.32</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.1099999999999994</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -2979,43 +3283,49 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731782328.7781034</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731782328.7781034.png</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731782328.7781034.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>49.16</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>49.16</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3023,51 +3333,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731782329.9632888</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731782332.5856612</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731782329.9632888.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731782332.5856612.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>1390.6</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>1398.2</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-7.600000000000136</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>-0.5499999999999999</v>
       </c>
     </row>
@@ -3075,51 +3391,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731782333.1233106</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731782336.5729582</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731782333.1233106.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731782336.5729582.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>1392.4</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>1390</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-2.400000000000091</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -3127,51 +3449,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731782337.1317368</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731782338.5428114</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731782337.1317368.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731782338.5428114.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>1392</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>1390.4</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>1.599999999999909</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -3179,51 +3507,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731782341.590246</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731782344.0846999</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731782341.590246.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731782344.0846999.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>61.19</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>61.09</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -3231,51 +3565,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731782349.466266</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731782349.826974</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731782349.466266.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731782349.826974.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>61.03</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>60.85</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.1799999999999997</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -3283,43 +3623,49 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731782349.993361</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731782349.993361.png</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731782349.993361.png</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>60.72</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>60.72</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3327,51 +3673,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731782353.6860666</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731782354.0830364</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731782353.6860666.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731782354.0830364.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>98.19</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>98.5</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.3100000000000023</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -3379,51 +3731,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731782354.8417923</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731782355.964649</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731782354.8417923.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731782355.964649.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>98.06999999999999</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>98.19</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -3431,51 +3789,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731782356.5151913</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731782357.4092543</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731782356.5151913.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731782357.4092543.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>97.69</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>97.81999999999999</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.1299999999999955</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -3483,51 +3847,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731782361.5400484</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731782361.6770985</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/SELG1731782361.5400484.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/SELG1731782361.6770985.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>56.48</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>56.17</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.3099999999999952</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -3535,51 +3905,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731782362.154243</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731782362.6036358</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/SELG1731782362.154243.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/SELG1731782362.6036358.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>55.99</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>56.18</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -3587,51 +3963,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731782363.8622086</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731782367.8972218</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/SELG1731782363.8622086.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/SELG1731782367.8972218.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>55.91</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>55.89</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.01999999999999602</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -3639,51 +4021,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731782370.3793283</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731782375.847436</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731782370.3793283.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731782375.847436.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>147.48</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>155.04</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-7.560000000000002</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>-5.13</v>
       </c>
     </row>
@@ -3691,51 +4079,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731782376.727894</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731782378.3475964</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731782376.727894.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731782378.3475964.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>153.38</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>153.22</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-0.1599999999999966</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -3743,51 +4137,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731782379.456993</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731782380.3204854</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731782379.456993.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731782380.3204854.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>154.32</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>153.52</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.7999999999999829</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.52</v>
       </c>
     </row>
@@ -3795,95 +4195,107 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731782380.8554156</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731782380.8554156.png</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731782380.8554156.png</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>152.58</v>
       </c>
-      <c r="J67" t="n">
-        <v>152.58</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>152.74</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.1599999999999966</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731782385.638353</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731782389.9753582</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731782385.638353.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731782389.9753582.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>20.361</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>20.327</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-0.03399999999999892</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -3891,51 +4303,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731782390.238426</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731782390.8838918</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731782390.238426.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731782390.8838918.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>20.379</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>20.321</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.05799999999999983</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -3943,95 +4361,107 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731782391.0908446</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731782391.0908446.png</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731782391.0908446.png</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>20.268</v>
       </c>
-      <c r="J70" t="n">
-        <v>20.268</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>20.161</v>
+      </c>
+      <c r="M70" t="n">
+        <v>-0.1069999999999993</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.53</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731782394.7888772</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731782395.256427</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731782394.7888772.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731782395.256427.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>680</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>680.35</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>-0.3500000000000227</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -4039,51 +4469,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731782397.0826728</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731782399.0030072</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731782397.0826728.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731782399.0030072.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>677.35</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>678</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.6499999999999773</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -4091,95 +4527,107 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731782401.6105442</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731782401.6105442.png</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731782401.6105442.png</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>675.9</v>
       </c>
-      <c r="J73" t="n">
-        <v>675.9</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>675.7</v>
+      </c>
+      <c r="M73" t="n">
+        <v>-0.1999999999999318</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731782402.1211085</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731782403.5038507</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731782402.1211085.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731782403.5038507.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>156.13</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>156.64</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.5099999999999909</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -4187,51 +4635,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731782405.7398226</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731782406.8370407</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731782405.7398226.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731782406.8370407.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>157.83</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>156.46</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>1.370000000000005</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.8699999999999999</v>
       </c>
     </row>
@@ -4239,51 +4693,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731782407.9808726</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731782410.8386765</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731782407.9808726.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731782410.8386765.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>156.03</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>155.05</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>-0.9799999999999898</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>-0.63</v>
       </c>
     </row>
@@ -4291,51 +4751,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731782411.1765535</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731782412.1331441</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731782411.1765535.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731782412.1331441.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>156.28</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>155.38</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.9000000000000057</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>0.58</v>
       </c>
     </row>
@@ -4343,51 +4809,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731782413.0983534</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731782413.9404476</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/FEES1731782413.0983534.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/FEES1731782413.9404476.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>0.09724000000000001</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>0.09748000000000001</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.0002400000000000041</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -4395,51 +4867,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731782414.015595</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731782416.9942825</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/FEES1731782414.015595.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/FEES1731782416.9942825.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>0.098</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>0.09770000000000001</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.0002999999999999947</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -4447,51 +4925,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731782418.3270943</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731782421.5348363</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/FEES1731782418.3270943.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/FEES1731782421.5348363.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>0.09742000000000001</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>0.09772</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.0002999999999999947</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -4499,51 +4983,57 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731782423.7558336</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731782426.177512</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/MXI1731782423.7558336.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/MXI1731782426.177512.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>2949</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>2946.5</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>2.5</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -4551,44 +5041,50 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731782426.4862044</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731782426.4862044.png</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731782426.4862044.png</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>2940.7</v>
       </c>
-      <c r="J82" t="n">
-        <v>2940.7</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0</v>
-      </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>2941.35</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.6500000000000909</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -4649,19 +5145,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.670000000000073</v>
+        <v>1.410000000000082</v>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.238571428571439</v>
+        <v>0.2014285714285831</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6</v>
+        <v>0.51</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -4693,19 +5189,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1</v>
+        <v>0.08000000000000114</v>
       </c>
       <c r="E4" t="n">
-        <v>0.41</v>
+        <v>0.3300000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -4715,16 +5211,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36.5</v>
+        <v>35.5</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="F5" t="n">
         <v>0.11</v>
@@ -4781,19 +5277,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.25</v>
+        <v>0.6999999999999886</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0625</v>
+        <v>0.1749999999999972</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03999999999999998</v>
+        <v>0.13</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="9">
@@ -4847,19 +5343,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6.920000000000016</v>
+        <v>-6.760000000000019</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.730000000000004</v>
+        <v>-1.690000000000005</v>
       </c>
       <c r="E11" t="n">
-        <v>-4.71</v>
+        <v>-4.609999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.18</v>
+        <v>-1.15</v>
       </c>
     </row>
     <row r="12">
@@ -4869,19 +5365,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.02800000000000047</v>
+        <v>-0.03100000000000058</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.007000000000000117</v>
+        <v>-0.007750000000000146</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.24</v>
+        <v>-0.27</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.06</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -4935,19 +5431,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3000000000000114</v>
+        <v>0.2199999999999989</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1000000000000038</v>
+        <v>0.07333333333333296</v>
       </c>
       <c r="E15" t="n">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="16">
@@ -5001,19 +5497,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3300000000000409</v>
+        <v>-0.009999999999934062</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1100000000000136</v>
+        <v>-0.003333333333311354</v>
       </c>
       <c r="E18" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -5045,19 +5541,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2999999999999545</v>
+        <v>0.1000000000000227</v>
       </c>
       <c r="C20" t="n">
         <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>0.09999999999998484</v>
+        <v>0.03333333333334091</v>
       </c>
       <c r="E20" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="21">
@@ -5067,19 +5563,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02400000000000091</v>
+        <v>-0.08299999999999841</v>
       </c>
       <c r="C21" t="n">
         <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>0.008000000000000304</v>
+        <v>-0.02766666666666613</v>
       </c>
       <c r="E21" t="n">
-        <v>0.11</v>
+        <v>-0.42</v>
       </c>
       <c r="F21" t="n">
-        <v>0.04</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="22">
@@ -5089,19 +5585,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.5</v>
+        <v>3.150000000000091</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>1.25</v>
+        <v>1.575000000000045</v>
       </c>
       <c r="E22" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="23">
